--- a/Obrona_JPSZEFLER/Tabele_SSI_forHEI_QMS_PL.xlsx
+++ b/Obrona_JPSZEFLER/Tabele_SSI_forHEI_QMS_PL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPSZ\Desktop\STUDIA\doktorat_git\Obrona_JPSZEFLER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015B6EC-3451-4AB6-BBE1-E1BC21E1BB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C0E777-E49C-474F-8370-CEA0D9BC8A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="-98" windowWidth="22958" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33130" yWindow="-7420" windowWidth="37380" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,6 +142,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF003767"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -256,7 +261,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="003767"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -396,7 +401,7 @@
             <a:pPr>
               <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -452,10 +457,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -529,6 +531,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Liczba wskazań wśród respondentów</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,7 +602,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="003767"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -698,9 +722,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -756,7 +780,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2247,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
